--- a/Thiết kế/Thiết kế giao diện/Phạm Huy/CapNhatThongTinNV.xlsx
+++ b/Thiết kế/Thiết kế giao diện/Phạm Huy/CapNhatThongTinNV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huy/Downloads/CNPM/Thiết kế/Thiết kế giao diện/Phạm Huy Thiết kế/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Thiết kế\Thiết kế giao diện\Phạm Huy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5EB1F9-8596-794A-B776-9784656BF853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BC7D2A-5C10-45C3-9933-90E925EB24F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="2660" windowWidth="28040" windowHeight="17440" xr2:uid="{2B64E932-BFF9-7042-8915-7832FAF5A499}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B64E932-BFF9-7042-8915-7832FAF5A499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -303,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,6 +303,7 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -978,20 +970,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C8B081-617A-CE44-8F3A-2769DBFD926B}">
   <dimension ref="A34:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:G65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.296875" customWidth="1"/>
     <col min="3" max="3" width="61.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="7" width="27.33203125" customWidth="1"/>
+    <col min="6" max="7" width="27.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +991,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1025,7 +1017,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -1037,7 +1029,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -1049,7 +1041,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -1061,7 +1053,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -1073,18 +1065,18 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -1124,7 +1116,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -1141,7 +1133,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -1158,7 +1150,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -1175,7 +1167,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -1192,7 +1184,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>6</v>
       </c>
@@ -1209,7 +1201,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>7</v>
       </c>
@@ -1228,7 +1220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>8</v>
       </c>
@@ -1245,7 +1237,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -1262,7 +1254,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>10</v>
       </c>
@@ -1279,7 +1271,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>11</v>
       </c>
@@ -1296,7 +1288,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>12</v>
       </c>
@@ -1313,7 +1305,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>13</v>
       </c>
@@ -1330,7 +1322,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>14</v>
       </c>
@@ -1347,7 +1339,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>15</v>
       </c>
@@ -1364,7 +1356,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>16</v>
       </c>
@@ -1381,7 +1373,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>17</v>
       </c>
@@ -1398,7 +1390,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>18</v>
       </c>
@@ -1415,7 +1407,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>19</v>
       </c>
@@ -1432,7 +1424,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>20</v>
       </c>
@@ -1449,7 +1441,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>21</v>
       </c>
@@ -1467,6 +1459,9 @@
       <c r="G65" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A43:G43"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G51" r:id="rId1" xr:uid="{81E6FC8A-DC5C-EC42-9042-7E610D6B4DF5}"/>
   </hyperlinks>
